--- a/sql/pyramid_nytc/Pyramid-test/zoo.xlsx
+++ b/sql/pyramid_nytc/Pyramid-test/zoo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="38355" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="21795" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -644,6 +644,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,19 +942,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="17" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="17" width="3.73046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="41">
         <v>0</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="41">
         <v>0</v>
       </c>
@@ -1054,7 +1057,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="41">
         <v>1</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="41">
         <v>2</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A5" s="41">
         <v>3</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="41">
         <v>4</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="41">
         <v>5</v>
       </c>
@@ -1319,7 +1322,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="41">
         <v>6</v>
       </c>
@@ -1371,8 +1374,12 @@
       <c r="Q8" s="8">
         <v>125</v>
       </c>
+      <c r="S8" s="42" t="str">
+        <f>DEC2BIN(Q9)</f>
+        <v>1111111</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A9" s="41">
         <v>7</v>
       </c>
@@ -1424,8 +1431,12 @@
       <c r="Q9" s="39">
         <v>127</v>
       </c>
+      <c r="S9" s="42" t="str">
+        <f>DEC2BIN(B10)</f>
+        <v>10000000</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" thickTop="1">
+    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A10" s="41">
         <v>8</v>
       </c>
@@ -1478,7 +1489,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="41">
         <v>9</v>
       </c>
@@ -1531,7 +1542,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="41">
         <v>10</v>
       </c>
@@ -1584,7 +1595,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="13" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A13" s="41">
         <v>11</v>
       </c>
@@ -1637,7 +1648,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="41">
         <v>12</v>
       </c>
@@ -1690,7 +1701,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="41">
         <v>13</v>
       </c>
@@ -1743,7 +1754,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:19" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="41">
         <v>14</v>
       </c>
@@ -1869,7 +1880,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1881,7 +1892,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
